--- a/Tugas/Tugas Akhir/Data PSD.xlsx
+++ b/Tugas/Tugas Akhir/Data PSD.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fathan\Documents\Obsidian Vault\2. Kuliah\Smt 5\8. Pengantar Sains Data\Tugas\Tugas Akhir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2099B9-DC42-474D-8CD9-DFD973B139D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F3BDA1-0F9E-4E78-A0E0-653709140825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9135" yWindow="1680" windowWidth="18105" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9135" yWindow="1680" windowWidth="18105" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bencana Alam" sheetId="1" r:id="rId1"/>
-    <sheet name="Jumlah Desa" sheetId="2" r:id="rId2"/>
+    <sheet name="Persentase" sheetId="2" r:id="rId2"/>
+    <sheet name="Jumlah Desa" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="83">
   <si>
     <t>Provinsi</t>
   </si>
@@ -276,36 +277,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,18 +303,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF002142"/>
-        <bgColor rgb="FF002142"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD4D4D4"/>
-        <bgColor rgb="FFD4D4D4"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -333,27 +316,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -372,56 +356,108 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -433,131 +469,160 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -569,32 +634,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView zoomScale="94" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-    <col min="6" max="6" width="34.28515625" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" customWidth="1"/>
-    <col min="11" max="11" width="25.42578125" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -631,1647 +693,3040 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2">
         <v>4406</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2">
         <v>173</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>43</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2">
         <v>108</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2">
         <v>106</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2">
         <v>2</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2">
         <v>493</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2">
         <v>81</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2">
         <v>1435</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3">
         <v>3827</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3">
         <v>127</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3">
         <v>59</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3">
         <v>82</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3">
         <v>483</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3">
         <v>78</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3">
         <v>964</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3">
         <v>52</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3">
         <v>732</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3">
         <v>483</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>513</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4">
         <v>43</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>18</v>
       </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>248</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>57</v>
       </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>364</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4">
         <v>65</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4">
         <v>342</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4">
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>1224</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>51</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5">
         <v>194</v>
       </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>53</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5">
         <v>15</v>
       </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5">
         <v>455</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>1001</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>16</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>16</v>
       </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>44</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>36</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6">
         <v>17</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6">
         <v>476</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>2644</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>98</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7">
         <v>64</v>
       </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>90</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7">
         <v>3</v>
       </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>49</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7">
         <v>36</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7">
         <v>380</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>1195</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>19</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>17</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8">
         <v>14</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>66</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8">
         <v>15</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8">
         <v>171</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>2093</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>30</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9">
         <v>11</v>
       </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>158</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9">
         <v>35</v>
       </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>47</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9">
         <v>23</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9">
         <v>328</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>265</v>
       </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>14</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>77</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10">
         <v>17</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>59</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>241</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11">
         <v>27</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11">
         <v>57</v>
       </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>40</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11">
         <v>69</v>
       </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>1</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11">
         <v>61</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>152</v>
       </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>5</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>109</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>3081</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13">
         <v>442</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13">
         <v>76</v>
       </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>412</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13">
         <v>91</v>
       </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>601</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13">
         <v>100</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13">
         <v>1193</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13">
         <v>1288</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>5637</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>278</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14">
         <v>49</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14">
         <v>26</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14">
         <v>619</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14">
         <v>128</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>114</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14">
         <v>69</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14">
         <v>1249</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14">
         <v>1190</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <v>233</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15">
         <v>31</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15">
         <v>4</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15">
         <v>3</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15">
         <v>84</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15">
         <v>12</v>
       </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>52</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15">
         <v>1</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15">
         <v>50</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>4655</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>156</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16">
         <v>50</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16">
         <v>74</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16">
         <v>486</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16">
         <v>87</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16">
         <v>4</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16">
         <v>2449</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16">
         <v>96</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16">
         <v>1176</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16">
         <v>511</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
         <v>914</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17">
         <v>77</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17">
         <v>8</v>
       </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>107</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17">
         <v>39</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17">
         <v>1</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17">
         <v>158</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17">
         <v>41</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17">
         <v>419</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17">
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>482</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>8</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
         <v>46</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18">
         <v>34</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>79</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18">
         <v>5</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18">
         <v>39</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19">
         <v>748</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19">
         <v>88</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19">
         <v>19</v>
       </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
         <v>65</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19">
         <v>44</v>
       </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>100</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19">
         <v>54</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19">
         <v>187</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20">
         <v>1487</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>454</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20">
         <v>144</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20">
         <v>54</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20">
         <v>1219</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20">
         <v>218</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>246</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20">
         <v>151</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20">
         <v>570</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20">
         <v>610</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21">
         <v>1158</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21">
         <v>75</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21">
         <v>135</v>
       </c>
-      <c r="E21" s="5">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5">
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>53</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21">
         <v>48</v>
       </c>
-      <c r="H21" s="5">
-        <v>0</v>
-      </c>
-      <c r="I21" s="5">
-        <v>0</v>
-      </c>
-      <c r="J21" s="5">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
         <v>22</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21">
         <v>864</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21">
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>789</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
         <v>37</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22">
         <v>66</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
         <v>16</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22">
         <v>12</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
         <v>9</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22">
         <v>735</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23">
         <v>973</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23">
         <v>35</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23">
         <v>60</v>
       </c>
-      <c r="E23" s="5">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5">
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
         <v>70</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23">
         <v>30</v>
       </c>
-      <c r="H23" s="5">
-        <v>0</v>
-      </c>
-      <c r="I23" s="5">
-        <v>0</v>
-      </c>
-      <c r="J23" s="5">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
         <v>31</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23">
         <v>929</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24">
         <v>628</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>32</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24">
         <v>52</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
         <v>26</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24">
         <v>9</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>6</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24">
         <v>5</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24">
         <v>343</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25">
         <v>248</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25">
         <v>6</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25">
         <v>13</v>
       </c>
-      <c r="E25" s="5">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5">
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
         <v>3</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25">
         <v>3</v>
       </c>
-      <c r="H25" s="5">
-        <v>0</v>
-      </c>
-      <c r="I25" s="5">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>18</v>
       </c>
-      <c r="J25" s="5">
-        <v>0</v>
-      </c>
-      <c r="K25" s="5">
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>200</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26">
         <v>1075</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
         <v>24</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26">
         <v>25</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>107</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26">
         <v>95</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>349</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26">
         <v>37</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26">
         <v>288</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26">
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27">
         <v>984</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27">
         <v>42</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27">
         <v>29</v>
       </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="F27" s="5">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>85</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27">
         <v>117</v>
       </c>
-      <c r="H27" s="5">
-        <v>0</v>
-      </c>
-      <c r="I27" s="5">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>556</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27">
         <v>57</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27">
         <v>567</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27">
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28">
         <v>1863</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <v>60</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>22</v>
       </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>293</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28">
         <v>39</v>
       </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28" s="3">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <v>272</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28">
         <v>52</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28">
         <v>620</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28">
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29">
         <v>1852</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29">
         <v>16</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29">
         <v>12</v>
       </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-      <c r="F29" s="5">
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
         <v>104</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29">
         <v>58</v>
       </c>
-      <c r="H29" s="5">
-        <v>0</v>
-      </c>
-      <c r="I29" s="5">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>43</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29">
         <v>10</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29">
         <v>240</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30">
         <v>352</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30">
         <v>57</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30">
         <v>9</v>
       </c>
-      <c r="E30" s="3">
-        <v>0</v>
-      </c>
-      <c r="F30" s="3">
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
         <v>34</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30">
         <v>37</v>
       </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>95</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30">
         <v>24</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30">
         <v>259</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30">
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31">
         <v>105</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31">
         <v>22</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31">
         <v>8</v>
       </c>
-      <c r="E31" s="5">
-        <v>0</v>
-      </c>
-      <c r="F31" s="5">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <v>26</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31">
         <v>35</v>
       </c>
-      <c r="H31" s="5">
-        <v>0</v>
-      </c>
-      <c r="I31" s="5">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>498</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31">
         <v>7</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31">
         <v>125</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31">
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32">
         <v>798</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32">
         <v>26</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32">
         <v>26</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>54</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32">
         <v>165</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>106</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32">
         <v>2</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32">
         <v>153</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33">
         <v>423</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33">
         <v>12</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33">
         <v>16</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33">
         <v>1</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33">
         <v>42</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33">
         <v>124</v>
       </c>
-      <c r="H33" s="5">
-        <v>0</v>
-      </c>
-      <c r="I33" s="5">
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>589</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33">
         <v>20</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33">
         <v>270</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33">
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34">
         <v>1482</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34">
         <v>5</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34">
         <v>12</v>
       </c>
-      <c r="E34" s="3">
-        <v>0</v>
-      </c>
-      <c r="F34" s="3">
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
         <v>6</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G34">
         <v>30</v>
       </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>318</v>
       </c>
-      <c r="J34" s="3">
-        <v>0</v>
-      </c>
-      <c r="K34" s="3">
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
         <v>138</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34">
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35">
         <v>5142</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35">
         <v>9</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35">
         <v>14</v>
       </c>
-      <c r="E35" s="5">
-        <v>0</v>
-      </c>
-      <c r="F35" s="5">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
         <v>11</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35">
         <v>57</v>
       </c>
-      <c r="H35" s="5">
-        <v>0</v>
-      </c>
-      <c r="I35" s="5">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>57</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35">
         <v>9</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35">
         <v>204</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35">
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36">
         <v>52670</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36">
         <v>2570</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36">
         <v>1338</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36">
         <v>241</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36">
         <v>5286</v>
       </c>
-      <c r="G36" s="3">
+      <c r="G36">
         <v>1913</v>
       </c>
-      <c r="H36" s="3">
+      <c r="H36">
         <v>11</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36">
         <v>8726</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36">
         <v>1093</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36">
         <v>15366</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36">
         <v>6664</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="2">
-        <v>6516</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="2">
-        <v>6132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1876</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="2">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1514</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2654</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="3">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="3">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="3">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="2">
-        <v>5957</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="2">
-        <v>8562</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="3">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="2">
-        <v>8496</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1552</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="3">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3353</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="2">
-        <v>2137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="2">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="3">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1840</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="2">
-        <v>3051</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="2">
-        <v>2309</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="3">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="3">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="2">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="2">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="2">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="2">
-        <v>5560</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="2">
-        <v>83843</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>67.62</v>
+      </c>
+      <c r="C2">
+        <v>2.66</v>
+      </c>
+      <c r="D2">
+        <v>0.66</v>
+      </c>
+      <c r="E2">
+        <v>0.02</v>
+      </c>
+      <c r="F2">
+        <v>1.66</v>
+      </c>
+      <c r="G2">
+        <v>1.63</v>
+      </c>
+      <c r="H2">
+        <v>0.03</v>
+      </c>
+      <c r="I2">
+        <v>7.57</v>
+      </c>
+      <c r="J2">
+        <v>1.24</v>
+      </c>
+      <c r="K2">
+        <v>22.02</v>
+      </c>
+      <c r="L2">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>62.41</v>
+      </c>
+      <c r="C3">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="D3">
+        <v>0.96</v>
+      </c>
+      <c r="E3">
+        <v>1.34</v>
+      </c>
+      <c r="F3">
+        <v>7.88</v>
+      </c>
+      <c r="G3">
+        <v>1.27</v>
+      </c>
+      <c r="H3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I3">
+        <v>15.72</v>
+      </c>
+      <c r="J3">
+        <v>0.85</v>
+      </c>
+      <c r="K3">
+        <v>11.94</v>
+      </c>
+      <c r="L3">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>44.26</v>
+      </c>
+      <c r="C4">
+        <v>3.71</v>
+      </c>
+      <c r="D4">
+        <v>1.55</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>21.4</v>
+      </c>
+      <c r="G4">
+        <v>4.92</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>31.41</v>
+      </c>
+      <c r="J4">
+        <v>5.61</v>
+      </c>
+      <c r="K4">
+        <v>29.51</v>
+      </c>
+      <c r="L4">
+        <v>19.149999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>65.25</v>
+      </c>
+      <c r="C5">
+        <v>2.72</v>
+      </c>
+      <c r="D5">
+        <v>10.34</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2.83</v>
+      </c>
+      <c r="G5">
+        <v>0.8</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0.05</v>
+      </c>
+      <c r="K5">
+        <v>24.25</v>
+      </c>
+      <c r="L5">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>64.08</v>
+      </c>
+      <c r="C6">
+        <v>1.02</v>
+      </c>
+      <c r="D6">
+        <v>1.02</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2.82</v>
+      </c>
+      <c r="G6">
+        <v>0.13</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J6">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="K6">
+        <v>30.47</v>
+      </c>
+      <c r="L6">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>80.39</v>
+      </c>
+      <c r="C7">
+        <v>2.98</v>
+      </c>
+      <c r="D7">
+        <v>1.95</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2.74</v>
+      </c>
+      <c r="G7">
+        <v>0.09</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1.49</v>
+      </c>
+      <c r="J7">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="K7">
+        <v>11.55</v>
+      </c>
+      <c r="L7">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>78.930000000000007</v>
+      </c>
+      <c r="C8">
+        <v>1.25</v>
+      </c>
+      <c r="D8">
+        <v>0.26</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G8">
+        <v>0.92</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="J8">
+        <v>0.99</v>
+      </c>
+      <c r="K8">
+        <v>11.29</v>
+      </c>
+      <c r="L8">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>78.86</v>
+      </c>
+      <c r="C9">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.41</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>5.95</v>
+      </c>
+      <c r="G9">
+        <v>1.32</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1.77</v>
+      </c>
+      <c r="J9">
+        <v>0.87</v>
+      </c>
+      <c r="K9">
+        <v>12.36</v>
+      </c>
+      <c r="L9">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>67.430000000000007</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>3.56</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>19.59</v>
+      </c>
+      <c r="G10">
+        <v>4.33</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>15.01</v>
+      </c>
+      <c r="L10">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>57.79</v>
+      </c>
+      <c r="C11">
+        <v>6.47</v>
+      </c>
+      <c r="D11">
+        <v>13.67</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>9.59</v>
+      </c>
+      <c r="G11">
+        <v>16.55</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0.24</v>
+      </c>
+      <c r="K11">
+        <v>14.63</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>56.93</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.37</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1.87</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0.37</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>40.82</v>
+      </c>
+      <c r="L12">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>51.72</v>
+      </c>
+      <c r="C13">
+        <v>7.42</v>
+      </c>
+      <c r="D13">
+        <v>1.28</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>6.92</v>
+      </c>
+      <c r="G13">
+        <v>1.53</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>10.09</v>
+      </c>
+      <c r="J13">
+        <v>1.68</v>
+      </c>
+      <c r="K13">
+        <v>20.03</v>
+      </c>
+      <c r="L13">
+        <v>21.62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>65.84</v>
+      </c>
+      <c r="C14">
+        <v>3.25</v>
+      </c>
+      <c r="D14">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E14">
+        <v>0.3</v>
+      </c>
+      <c r="F14">
+        <v>7.23</v>
+      </c>
+      <c r="G14">
+        <v>1.49</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1.33</v>
+      </c>
+      <c r="J14">
+        <v>0.81</v>
+      </c>
+      <c r="K14">
+        <v>14.59</v>
+      </c>
+      <c r="L14">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>53.2</v>
+      </c>
+      <c r="C15">
+        <v>7.08</v>
+      </c>
+      <c r="D15">
+        <v>0.91</v>
+      </c>
+      <c r="E15">
+        <v>0.68</v>
+      </c>
+      <c r="F15">
+        <v>19.18</v>
+      </c>
+      <c r="G15">
+        <v>2.74</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>11.87</v>
+      </c>
+      <c r="J15">
+        <v>0.23</v>
+      </c>
+      <c r="K15">
+        <v>11.42</v>
+      </c>
+      <c r="L15">
+        <v>13.47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>54.79</v>
+      </c>
+      <c r="C16">
+        <v>1.84</v>
+      </c>
+      <c r="D16">
+        <v>0.59</v>
+      </c>
+      <c r="E16">
+        <v>0.87</v>
+      </c>
+      <c r="F16">
+        <v>5.72</v>
+      </c>
+      <c r="G16">
+        <v>1.02</v>
+      </c>
+      <c r="H16">
+        <v>0.05</v>
+      </c>
+      <c r="I16">
+        <v>28.83</v>
+      </c>
+      <c r="J16">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="K16">
+        <v>13.84</v>
+      </c>
+      <c r="L16">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>58.89</v>
+      </c>
+      <c r="C17">
+        <v>4.96</v>
+      </c>
+      <c r="D17">
+        <v>0.52</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>6.89</v>
+      </c>
+      <c r="G17">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="H17">
+        <v>0.06</v>
+      </c>
+      <c r="I17">
+        <v>10.18</v>
+      </c>
+      <c r="J17">
+        <v>2.64</v>
+      </c>
+      <c r="K17">
+        <v>27</v>
+      </c>
+      <c r="L17">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18">
+        <v>67.319999999999993</v>
+      </c>
+      <c r="C18">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D18">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>6.42</v>
+      </c>
+      <c r="G18">
+        <v>4.75</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>11.03</v>
+      </c>
+      <c r="J18">
+        <v>0.7</v>
+      </c>
+      <c r="K18">
+        <v>5.45</v>
+      </c>
+      <c r="L18">
+        <v>14.66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19">
+        <v>64.930000000000007</v>
+      </c>
+      <c r="C19">
+        <v>7.64</v>
+      </c>
+      <c r="D19">
+        <v>1.65</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>5.64</v>
+      </c>
+      <c r="G19">
+        <v>3.82</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>8.68</v>
+      </c>
+      <c r="J19">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="K19">
+        <v>16.23</v>
+      </c>
+      <c r="L19">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>44.35</v>
+      </c>
+      <c r="C20">
+        <v>13.54</v>
+      </c>
+      <c r="D20">
+        <v>4.29</v>
+      </c>
+      <c r="E20">
+        <v>1.61</v>
+      </c>
+      <c r="F20">
+        <v>36.36</v>
+      </c>
+      <c r="G20">
+        <v>6.5</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>7.34</v>
+      </c>
+      <c r="J20">
+        <v>4.5</v>
+      </c>
+      <c r="K20">
+        <v>17</v>
+      </c>
+      <c r="L20">
+        <v>18.190000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>54.19</v>
+      </c>
+      <c r="C21">
+        <v>3.51</v>
+      </c>
+      <c r="D21">
+        <v>6.32</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>2.48</v>
+      </c>
+      <c r="G21">
+        <v>2.25</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1.03</v>
+      </c>
+      <c r="K21">
+        <v>40.43</v>
+      </c>
+      <c r="L21">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22">
+        <v>50.06</v>
+      </c>
+      <c r="C22">
+        <v>2.35</v>
+      </c>
+      <c r="D22">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1.02</v>
+      </c>
+      <c r="G22">
+        <v>0.76</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K22">
+        <v>46.64</v>
+      </c>
+      <c r="L22">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>48.48</v>
+      </c>
+      <c r="C23">
+        <v>1.74</v>
+      </c>
+      <c r="D23">
+        <v>2.99</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>3.49</v>
+      </c>
+      <c r="G23">
+        <v>1.49</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1.54</v>
+      </c>
+      <c r="K23">
+        <v>46.29</v>
+      </c>
+      <c r="L23">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <v>60.5</v>
+      </c>
+      <c r="C24">
+        <v>3.08</v>
+      </c>
+      <c r="D24">
+        <v>5.01</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>2.5</v>
+      </c>
+      <c r="G24">
+        <v>0.87</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="J24">
+        <v>0.48</v>
+      </c>
+      <c r="K24">
+        <v>33.04</v>
+      </c>
+      <c r="L24">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>51.45</v>
+      </c>
+      <c r="C25">
+        <v>1.24</v>
+      </c>
+      <c r="D25">
+        <v>2.7</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0.62</v>
+      </c>
+      <c r="G25">
+        <v>0.62</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>3.73</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>41.49</v>
+      </c>
+      <c r="L25">
+        <v>8.7100000000000009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>58.42</v>
+      </c>
+      <c r="C26">
+        <v>1.3</v>
+      </c>
+      <c r="D26">
+        <v>1.36</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>5.82</v>
+      </c>
+      <c r="G26">
+        <v>5.16</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>18.97</v>
+      </c>
+      <c r="J26">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K26">
+        <v>15.65</v>
+      </c>
+      <c r="L26">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>48.71</v>
+      </c>
+      <c r="C27">
+        <v>2.08</v>
+      </c>
+      <c r="D27">
+        <v>1.44</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>4.21</v>
+      </c>
+      <c r="G27">
+        <v>5.79</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>27.52</v>
+      </c>
+      <c r="J27">
+        <v>2.82</v>
+      </c>
+      <c r="K27">
+        <v>28.07</v>
+      </c>
+      <c r="L27">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28">
+        <v>61.06</v>
+      </c>
+      <c r="C28">
+        <v>1.97</v>
+      </c>
+      <c r="D28">
+        <v>0.72</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>9.6</v>
+      </c>
+      <c r="G28">
+        <v>1.28</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>8.92</v>
+      </c>
+      <c r="J28">
+        <v>1.7</v>
+      </c>
+      <c r="K28">
+        <v>20.32</v>
+      </c>
+      <c r="L28">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>80.209999999999994</v>
+      </c>
+      <c r="C29">
+        <v>0.69</v>
+      </c>
+      <c r="D29">
+        <v>0.52</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>4.5</v>
+      </c>
+      <c r="G29">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1.86</v>
+      </c>
+      <c r="J29">
+        <v>0.43</v>
+      </c>
+      <c r="K29">
+        <v>10.39</v>
+      </c>
+      <c r="L29">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30">
+        <v>47.96</v>
+      </c>
+      <c r="C30">
+        <v>7.77</v>
+      </c>
+      <c r="D30">
+        <v>1.23</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>4.63</v>
+      </c>
+      <c r="G30">
+        <v>5.04</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>12.94</v>
+      </c>
+      <c r="J30">
+        <v>3.27</v>
+      </c>
+      <c r="K30">
+        <v>35.29</v>
+      </c>
+      <c r="L30">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="C31">
+        <v>3.38</v>
+      </c>
+      <c r="D31">
+        <v>1.23</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>5.38</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>76.62</v>
+      </c>
+      <c r="J31">
+        <v>1.08</v>
+      </c>
+      <c r="K31">
+        <v>19.23</v>
+      </c>
+      <c r="L31">
+        <v>22.15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32">
+        <v>63.94</v>
+      </c>
+      <c r="C32">
+        <v>2.08</v>
+      </c>
+      <c r="D32">
+        <v>2.08</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>4.33</v>
+      </c>
+      <c r="G32">
+        <v>13.22</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>8.49</v>
+      </c>
+      <c r="J32">
+        <v>0.16</v>
+      </c>
+      <c r="K32">
+        <v>12.26</v>
+      </c>
+      <c r="L32">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <v>35.28</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1.33</v>
+      </c>
+      <c r="E33">
+        <v>0.08</v>
+      </c>
+      <c r="F33">
+        <v>3.5</v>
+      </c>
+      <c r="G33">
+        <v>10.34</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>49.12</v>
+      </c>
+      <c r="J33">
+        <v>1.67</v>
+      </c>
+      <c r="K33">
+        <v>22.52</v>
+      </c>
+      <c r="L33">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34">
+        <v>74.58</v>
+      </c>
+      <c r="C34">
+        <v>0.25</v>
+      </c>
+      <c r="D34">
+        <v>0.6</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0.3</v>
+      </c>
+      <c r="G34">
+        <v>1.51</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>16</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>6.95</v>
+      </c>
+      <c r="L34">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35">
+        <v>92.48</v>
+      </c>
+      <c r="C35">
+        <v>0.16</v>
+      </c>
+      <c r="D35">
+        <v>0.25</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0.2</v>
+      </c>
+      <c r="G35">
+        <v>1.03</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1.03</v>
+      </c>
+      <c r="J35">
+        <v>0.16</v>
+      </c>
+      <c r="K35">
+        <v>3.67</v>
+      </c>
+      <c r="L35">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36">
+        <v>62.82</v>
+      </c>
+      <c r="C36">
+        <v>3.07</v>
+      </c>
+      <c r="D36">
+        <v>1.6</v>
+      </c>
+      <c r="E36">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F36">
+        <v>6.3</v>
+      </c>
+      <c r="G36">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="H36">
+        <v>0.01</v>
+      </c>
+      <c r="I36">
+        <v>10.41</v>
+      </c>
+      <c r="J36">
+        <v>1.3</v>
+      </c>
+      <c r="K36">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="L36">
+        <v>7.95</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>6516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>6132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13">
+        <v>5957</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14">
+        <v>8562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16">
+        <v>8496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35">
+        <v>5560</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36">
+        <v>83843</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Tugas/Tugas Akhir/Data PSD.xlsx
+++ b/Tugas/Tugas Akhir/Data PSD.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fathan\Documents\Obsidian Vault\2. Kuliah\Smt 5\8. Pengantar Sains Data\Tugas\Tugas Akhir\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DEC905-19D7-4AC3-B4B5-991F3D1582AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="9990" yWindow="4425" windowWidth="18105" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Metadata" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Bencana Alam" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Persentase" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Jumlah Desa" sheetId="4" r:id="rId7"/>
+    <sheet name="Metadata" sheetId="1" r:id="rId1"/>
+    <sheet name="Bencana Alam" sheetId="2" r:id="rId2"/>
+    <sheet name="Persentase" sheetId="3" r:id="rId3"/>
+    <sheet name="Jumlah Desa" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -347,13 +356,15 @@
   </si>
   <si>
     <r>
-      <rPr/>
       <t xml:space="preserve">Sumber : </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
         <color rgb="FF1155CC"/>
-        <u/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>https://bps.go.id/indikator/indikator/view_data_pub/0000/api_pub/bEVXU252SU9hTjBxWEU3Z2NpS1ZPQT09/da_02/2</t>
     </r>
@@ -362,39 +373,55 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -402,7 +429,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -418,80 +445,65 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -681,23 +693,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="33.25"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,7 +728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -725,7 +742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -739,7 +756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -753,7 +770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -767,7 +784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -781,7 +798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>20</v>
       </c>
@@ -795,7 +812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -809,7 +826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -823,7 +840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -837,7 +854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -851,7 +868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -865,36 +882,45 @@
         <v>7</v>
       </c>
     </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="A14" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.0"/>
-    <col customWidth="1" min="2" max="2" width="9.25"/>
-    <col customWidth="1" min="3" max="3" width="7.5"/>
-    <col customWidth="1" min="4" max="4" width="6.5"/>
-    <col customWidth="1" min="5" max="5" width="6.13"/>
-    <col customWidth="1" min="6" max="6" width="6.63"/>
-    <col customWidth="1" min="7" max="7" width="6.25"/>
-    <col customWidth="1" min="8" max="8" width="6.63"/>
-    <col customWidth="1" min="9" max="9" width="7.5"/>
-    <col customWidth="1" min="10" max="10" width="7.25"/>
-    <col customWidth="1" min="11" max="11" width="7.13"/>
-    <col customWidth="1" min="12" max="12" width="6.5"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>38</v>
       </c>
@@ -932,1366 +958,1367 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="8">
-        <v>4406.0</v>
+        <v>4406</v>
       </c>
       <c r="C2" s="8">
-        <v>173.0</v>
+        <v>173</v>
       </c>
       <c r="D2" s="8">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="E2" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="8">
-        <v>108.0</v>
+        <v>108</v>
       </c>
       <c r="G2" s="8">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="H2" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="8">
-        <v>493.0</v>
+        <v>493</v>
       </c>
       <c r="J2" s="8">
-        <v>1435.0</v>
+        <v>1435</v>
       </c>
       <c r="K2" s="8">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="L2" s="8">
-        <v>198.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="10">
-        <v>3827.0</v>
+        <v>3827</v>
       </c>
       <c r="C3" s="10">
-        <v>127.0</v>
+        <v>127</v>
       </c>
       <c r="D3" s="10">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="E3" s="10">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="F3" s="10">
-        <v>483.0</v>
+        <v>483</v>
       </c>
       <c r="G3" s="10">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="H3" s="10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I3" s="10">
-        <v>964.0</v>
+        <v>964</v>
       </c>
       <c r="J3" s="10">
-        <v>732.0</v>
+        <v>732</v>
       </c>
       <c r="K3" s="10">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="L3" s="10">
-        <v>483.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="8">
-        <v>513.0</v>
+        <v>513</v>
       </c>
       <c r="C4" s="8">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="D4" s="8">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="E4" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4" s="8">
-        <v>248.0</v>
+        <v>248</v>
       </c>
       <c r="G4" s="8">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="H4" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4" s="8">
-        <v>364.0</v>
+        <v>364</v>
       </c>
       <c r="J4" s="8">
-        <v>342.0</v>
+        <v>342</v>
       </c>
       <c r="K4" s="8">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="L4" s="8">
-        <v>222.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="10">
-        <v>1224.0</v>
+        <v>1224</v>
       </c>
       <c r="C5" s="10">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="D5" s="10">
-        <v>194.0</v>
+        <v>194</v>
       </c>
       <c r="E5" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5" s="10">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="G5" s="10">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="H5" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I5" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5" s="10">
-        <v>455.0</v>
+        <v>455</v>
       </c>
       <c r="K5" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="10">
-        <v>21.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="8">
-        <v>1001.0</v>
+        <v>1001</v>
       </c>
       <c r="C6" s="8">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="D6" s="8">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E6" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6" s="8">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="G6" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6" s="8">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="J6" s="8">
-        <v>476.0</v>
+        <v>476</v>
       </c>
       <c r="K6" s="8">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="L6" s="8">
-        <v>57.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="10">
-        <v>2644.0</v>
+        <v>2644</v>
       </c>
       <c r="C7" s="10">
-        <v>98.0</v>
+        <v>98</v>
       </c>
       <c r="D7" s="10">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="E7" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="10">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="G7" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H7" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I7" s="10">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="J7" s="10">
-        <v>380.0</v>
+        <v>380</v>
       </c>
       <c r="K7" s="10">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="L7" s="10">
-        <v>103.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="8">
-        <v>1195.0</v>
+        <v>1195</v>
       </c>
       <c r="C8" s="8">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="D8" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E8" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="8">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="G8" s="8">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="H8" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8" s="8">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="J8" s="8">
-        <v>171.0</v>
+        <v>171</v>
       </c>
       <c r="K8" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="L8" s="8">
-        <v>81.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B9" s="10">
-        <v>2093.0</v>
+        <v>2093</v>
       </c>
       <c r="C9" s="10">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="D9" s="10">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="E9" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9" s="10">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="G9" s="10">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="H9" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I9" s="10">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="J9" s="10">
-        <v>328.0</v>
+        <v>328</v>
       </c>
       <c r="K9" s="10">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="L9" s="10">
-        <v>70.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="8">
-        <v>265.0</v>
+        <v>265</v>
       </c>
       <c r="C10" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10" s="8">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E10" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="8">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="G10" s="8">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="H10" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I10" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J10" s="8">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="K10" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L10" s="8">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B11" s="10">
-        <v>241.0</v>
+        <v>241</v>
       </c>
       <c r="C11" s="10">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="D11" s="10">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="E11" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11" s="10">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="G11" s="10">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="H11" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I11" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J11" s="10">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="K11" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="10">
-        <v>25.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B12" s="8">
-        <v>152.0</v>
+        <v>152</v>
       </c>
       <c r="C12" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D12" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G12" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H12" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I12" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="8">
-        <v>109.0</v>
+        <v>109</v>
       </c>
       <c r="K12" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L12" s="8">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="10">
-        <v>3081.0</v>
+        <v>3081</v>
       </c>
       <c r="C13" s="10">
-        <v>442.0</v>
+        <v>442</v>
       </c>
       <c r="D13" s="10">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="E13" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13" s="10">
-        <v>412.0</v>
+        <v>412</v>
       </c>
       <c r="G13" s="10">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="H13" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I13" s="10">
-        <v>601.0</v>
+        <v>601</v>
       </c>
       <c r="J13" s="10">
-        <v>1193.0</v>
+        <v>1193</v>
       </c>
       <c r="K13" s="10">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="L13" s="10">
-        <v>1288.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="8">
-        <v>5637.0</v>
+        <v>5637</v>
       </c>
       <c r="C14" s="8">
-        <v>278.0</v>
+        <v>278</v>
       </c>
       <c r="D14" s="8">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="E14" s="8">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="F14" s="8">
-        <v>619.0</v>
+        <v>619</v>
       </c>
       <c r="G14" s="8">
-        <v>128.0</v>
+        <v>128</v>
       </c>
       <c r="H14" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I14" s="8">
-        <v>114.0</v>
+        <v>114</v>
       </c>
       <c r="J14" s="8">
-        <v>1249.0</v>
+        <v>1249</v>
       </c>
       <c r="K14" s="8">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="L14" s="8">
-        <v>1190.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B15" s="10">
-        <v>233.0</v>
+        <v>233</v>
       </c>
       <c r="C15" s="10">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="D15" s="10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E15" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F15" s="10">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="G15" s="10">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="H15" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I15" s="10">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="J15" s="10">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="K15" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="10">
-        <v>59.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B16" s="8">
-        <v>4655.0</v>
+        <v>4655</v>
       </c>
       <c r="C16" s="8">
-        <v>156.0</v>
+        <v>156</v>
       </c>
       <c r="D16" s="8">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="E16" s="8">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="F16" s="8">
-        <v>486.0</v>
+        <v>486</v>
       </c>
       <c r="G16" s="8">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="H16" s="8">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I16" s="8">
-        <v>2449.0</v>
+        <v>2449</v>
       </c>
       <c r="J16" s="8">
-        <v>1176.0</v>
+        <v>1176</v>
       </c>
       <c r="K16" s="8">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="L16" s="8">
-        <v>511.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="10">
-        <v>914.0</v>
+        <v>914</v>
       </c>
       <c r="C17" s="10">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="D17" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E17" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17" s="10">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="G17" s="10">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="H17" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="10">
-        <v>158.0</v>
+        <v>158</v>
       </c>
       <c r="J17" s="10">
-        <v>419.0</v>
+        <v>419</v>
       </c>
       <c r="K17" s="10">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="L17" s="10">
-        <v>96.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="8">
-        <v>482.0</v>
+        <v>482</v>
       </c>
       <c r="C18" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D18" s="8">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E18" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18" s="8">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="G18" s="8">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="H18" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I18" s="8">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="J18" s="8">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="K18" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L18" s="8">
-        <v>105.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="10">
-        <v>748.0</v>
+        <v>748</v>
       </c>
       <c r="C19" s="10">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="D19" s="10">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="E19" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19" s="10">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="G19" s="10">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="H19" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I19" s="10">
-        <v>100.0</v>
+        <v>100</v>
       </c>
       <c r="J19" s="10">
-        <v>187.0</v>
+        <v>187</v>
       </c>
       <c r="K19" s="10">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="L19" s="10">
-        <v>44.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="8">
-        <v>1487.0</v>
+        <v>1487</v>
       </c>
       <c r="C20" s="8">
-        <v>454.0</v>
+        <v>454</v>
       </c>
       <c r="D20" s="8">
-        <v>144.0</v>
+        <v>144</v>
       </c>
       <c r="E20" s="8">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="F20" s="8">
-        <v>1219.0</v>
+        <v>1219</v>
       </c>
       <c r="G20" s="8">
-        <v>218.0</v>
+        <v>218</v>
       </c>
       <c r="H20" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I20" s="8">
-        <v>246.0</v>
+        <v>246</v>
       </c>
       <c r="J20" s="8">
-        <v>570.0</v>
+        <v>570</v>
       </c>
       <c r="K20" s="8">
-        <v>151.0</v>
+        <v>151</v>
       </c>
       <c r="L20" s="8">
-        <v>610.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B21" s="10">
-        <v>1158.0</v>
+        <v>1158</v>
       </c>
       <c r="C21" s="10">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="D21" s="10">
-        <v>135.0</v>
+        <v>135</v>
       </c>
       <c r="E21" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F21" s="10">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="G21" s="10">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="H21" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I21" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J21" s="10">
-        <v>864.0</v>
+        <v>864</v>
       </c>
       <c r="K21" s="10">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="L21" s="10">
-        <v>66.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B22" s="8">
-        <v>789.0</v>
+        <v>789</v>
       </c>
       <c r="C22" s="8">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="D22" s="8">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="E22" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F22" s="8">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="G22" s="8">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="H22" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I22" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J22" s="8">
-        <v>735.0</v>
+        <v>735</v>
       </c>
       <c r="K22" s="8">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L22" s="8">
-        <v>24.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B23" s="10">
-        <v>973.0</v>
+        <v>973</v>
       </c>
       <c r="C23" s="10">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="D23" s="10">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="E23" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F23" s="10">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="G23" s="10">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H23" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I23" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J23" s="10">
-        <v>929.0</v>
+        <v>929</v>
       </c>
       <c r="K23" s="10">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="L23" s="10">
-        <v>74.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>61</v>
       </c>
       <c r="B24" s="8">
-        <v>628.0</v>
+        <v>628</v>
       </c>
       <c r="C24" s="8">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="D24" s="8">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="E24" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F24" s="8">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="G24" s="8">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H24" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I24" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J24" s="8">
-        <v>343.0</v>
+        <v>343</v>
       </c>
       <c r="K24" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L24" s="8">
-        <v>74.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B25" s="10">
-        <v>248.0</v>
+        <v>248</v>
       </c>
       <c r="C25" s="10">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D25" s="10">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="E25" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F25" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G25" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H25" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I25" s="10">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="J25" s="10">
-        <v>200.0</v>
+        <v>200</v>
       </c>
       <c r="K25" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L25" s="10">
-        <v>42.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B26" s="8">
-        <v>1075.0</v>
+        <v>1075</v>
       </c>
       <c r="C26" s="8">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="D26" s="8">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="E26" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F26" s="8">
-        <v>107.0</v>
+        <v>107</v>
       </c>
       <c r="G26" s="8">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="H26" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I26" s="8">
-        <v>349.0</v>
+        <v>349</v>
       </c>
       <c r="J26" s="8">
-        <v>288.0</v>
+        <v>288</v>
       </c>
       <c r="K26" s="8">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="L26" s="8">
-        <v>218.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B27" s="10">
-        <v>984.0</v>
+        <v>984</v>
       </c>
       <c r="C27" s="10">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="D27" s="10">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="E27" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F27" s="10">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="G27" s="10">
-        <v>117.0</v>
+        <v>117</v>
       </c>
       <c r="H27" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I27" s="10">
-        <v>556.0</v>
+        <v>556</v>
       </c>
       <c r="J27" s="10">
-        <v>567.0</v>
+        <v>567</v>
       </c>
       <c r="K27" s="10">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="L27" s="10">
-        <v>133.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>65</v>
       </c>
       <c r="B28" s="8">
-        <v>1863.0</v>
+        <v>1863</v>
       </c>
       <c r="C28" s="8">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="D28" s="8">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="E28" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F28" s="8">
-        <v>293.0</v>
+        <v>293</v>
       </c>
       <c r="G28" s="8">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="H28" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I28" s="8">
-        <v>272.0</v>
+        <v>272</v>
       </c>
       <c r="J28" s="8">
-        <v>620.0</v>
+        <v>620</v>
       </c>
       <c r="K28" s="8">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="L28" s="8">
-        <v>251.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="10">
-        <v>1852.0</v>
+        <v>1852</v>
       </c>
       <c r="C29" s="10">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="D29" s="10">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E29" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F29" s="10">
-        <v>104.0</v>
+        <v>104</v>
       </c>
       <c r="G29" s="10">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="H29" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I29" s="10">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="J29" s="10">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="K29" s="10">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="L29" s="10">
-        <v>46.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>67</v>
       </c>
       <c r="B30" s="8">
-        <v>352.0</v>
+        <v>352</v>
       </c>
       <c r="C30" s="8">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="D30" s="8">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="E30" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F30" s="8">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="G30" s="8">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="H30" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I30" s="8">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="J30" s="8">
-        <v>259.0</v>
+        <v>259</v>
       </c>
       <c r="K30" s="8">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="L30" s="8">
-        <v>65.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="10">
-        <v>105.0</v>
+        <v>105</v>
       </c>
       <c r="C31" s="10">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="D31" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="E31" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F31" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="G31" s="10">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="H31" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I31" s="10">
-        <v>498.0</v>
+        <v>498</v>
       </c>
       <c r="J31" s="10">
-        <v>125.0</v>
+        <v>125</v>
       </c>
       <c r="K31" s="10">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L31" s="10">
-        <v>144.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>69</v>
       </c>
       <c r="B32" s="8">
-        <v>798.0</v>
+        <v>798</v>
       </c>
       <c r="C32" s="8">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="D32" s="8">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="E32" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F32" s="8">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="G32" s="8">
-        <v>165.0</v>
+        <v>165</v>
       </c>
       <c r="H32" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I32" s="8">
-        <v>106.0</v>
+        <v>106</v>
       </c>
       <c r="J32" s="8">
-        <v>153.0</v>
+        <v>153</v>
       </c>
       <c r="K32" s="8">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="L32" s="8">
-        <v>58.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B33" s="10">
-        <v>423.0</v>
+        <v>423</v>
       </c>
       <c r="C33" s="10">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D33" s="10">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="E33" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="10">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="G33" s="10">
-        <v>124.0</v>
+        <v>124</v>
       </c>
       <c r="H33" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I33" s="10">
-        <v>589.0</v>
+        <v>589</v>
       </c>
       <c r="J33" s="10">
-        <v>270.0</v>
+        <v>270</v>
       </c>
       <c r="K33" s="10">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="L33" s="10">
-        <v>80.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B34" s="8">
-        <v>1482.0</v>
+        <v>1482</v>
       </c>
       <c r="C34" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D34" s="8">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="E34" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F34" s="8">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G34" s="8">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="H34" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I34" s="8">
-        <v>318.0</v>
+        <v>318</v>
       </c>
       <c r="J34" s="8">
-        <v>138.0</v>
+        <v>138</v>
       </c>
       <c r="K34" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L34" s="8">
-        <v>72.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="10">
-        <v>5142.0</v>
+        <v>5142</v>
       </c>
       <c r="C35" s="10">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D35" s="10">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="E35" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F35" s="10">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="G35" s="10">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="H35" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I35" s="10">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="J35" s="10">
-        <v>204.0</v>
+        <v>204</v>
       </c>
       <c r="K35" s="10">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="L35" s="10">
-        <v>146.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B36" s="8">
-        <v>52670.0</v>
+        <v>52670</v>
       </c>
       <c r="C36" s="8">
-        <v>2570.0</v>
+        <v>2570</v>
       </c>
       <c r="D36" s="8">
-        <v>1338.0</v>
+        <v>1338</v>
       </c>
       <c r="E36" s="8">
-        <v>241.0</v>
+        <v>241</v>
       </c>
       <c r="F36" s="8">
-        <v>5286.0</v>
+        <v>5286</v>
       </c>
       <c r="G36" s="8">
-        <v>1913.0</v>
+        <v>1913</v>
       </c>
       <c r="H36" s="8">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="I36" s="8">
-        <v>8726.0</v>
+        <v>8726</v>
       </c>
       <c r="J36" s="8">
-        <v>15366.0</v>
+        <v>15366</v>
       </c>
       <c r="K36" s="8">
-        <v>1093.0</v>
+        <v>1093</v>
       </c>
       <c r="L36" s="8">
-        <v>6664.0</v>
+        <v>6664</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.0"/>
-    <col customWidth="1" min="2" max="2" width="9.25"/>
-    <col customWidth="1" min="3" max="3" width="7.5"/>
-    <col customWidth="1" min="4" max="4" width="6.5"/>
-    <col customWidth="1" min="5" max="5" width="6.13"/>
-    <col customWidth="1" min="6" max="6" width="6.63"/>
-    <col customWidth="1" min="7" max="7" width="6.25"/>
-    <col customWidth="1" min="8" max="8" width="6.63"/>
-    <col customWidth="1" min="9" max="9" width="7.5"/>
-    <col customWidth="1" min="10" max="10" width="7.25"/>
-    <col customWidth="1" min="11" max="11" width="7.13"/>
-    <col customWidth="1" min="12" max="12" width="6.5"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="12" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>38</v>
       </c>
@@ -2329,7 +2356,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>39</v>
       </c>
@@ -2367,7 +2394,7 @@
         <v>3.04</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>40</v>
       </c>
@@ -2375,7 +2402,7 @@
         <v>62.41</v>
       </c>
       <c r="C3" s="10">
-        <v>2.07</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="D3" s="10">
         <v>0.96</v>
@@ -2390,7 +2417,7 @@
         <v>1.27</v>
       </c>
       <c r="H3" s="10">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I3" s="10">
         <v>15.72</v>
@@ -2405,7 +2432,7 @@
         <v>7.88</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>41</v>
       </c>
@@ -2419,7 +2446,7 @@
         <v>1.55</v>
       </c>
       <c r="E4" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4" s="8">
         <v>21.4</v>
@@ -2428,7 +2455,7 @@
         <v>4.92</v>
       </c>
       <c r="H4" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4" s="8">
         <v>31.41</v>
@@ -2440,10 +2467,10 @@
         <v>29.51</v>
       </c>
       <c r="L4" s="8">
-        <v>19.15</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>19.149999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>42</v>
       </c>
@@ -2457,7 +2484,7 @@
         <v>10.34</v>
       </c>
       <c r="E5" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5" s="10">
         <v>2.83</v>
@@ -2466,10 +2493,10 @@
         <v>0.8</v>
       </c>
       <c r="H5" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I5" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5" s="10">
         <v>0.05</v>
@@ -2478,10 +2505,10 @@
         <v>24.25</v>
       </c>
       <c r="L5" s="10">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>43</v>
       </c>
@@ -2495,7 +2522,7 @@
         <v>1.02</v>
       </c>
       <c r="E6" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6" s="8">
         <v>2.82</v>
@@ -2504,13 +2531,13 @@
         <v>0.13</v>
       </c>
       <c r="H6" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6" s="8">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="J6" s="8">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K6" s="8">
         <v>30.47</v>
@@ -2519,7 +2546,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>44</v>
       </c>
@@ -2533,7 +2560,7 @@
         <v>1.95</v>
       </c>
       <c r="E7" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="10">
         <v>2.74</v>
@@ -2542,13 +2569,13 @@
         <v>0.09</v>
       </c>
       <c r="H7" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I7" s="10">
         <v>1.49</v>
       </c>
       <c r="J7" s="10">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K7" s="10">
         <v>11.55</v>
@@ -2557,12 +2584,12 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B8" s="8">
-        <v>78.93</v>
+        <v>78.930000000000007</v>
       </c>
       <c r="C8" s="8">
         <v>1.25</v>
@@ -2571,19 +2598,19 @@
         <v>0.26</v>
       </c>
       <c r="E8" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="8">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="G8" s="8">
         <v>0.92</v>
       </c>
       <c r="H8" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I8" s="8">
-        <v>4.36</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="J8" s="8">
         <v>0.99</v>
@@ -2595,7 +2622,7 @@
         <v>5.35</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>46</v>
       </c>
@@ -2603,13 +2630,13 @@
         <v>78.86</v>
       </c>
       <c r="C9" s="10">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="D9" s="10">
         <v>0.41</v>
       </c>
       <c r="E9" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9" s="10">
         <v>5.95</v>
@@ -2618,7 +2645,7 @@
         <v>1.32</v>
       </c>
       <c r="H9" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I9" s="10">
         <v>1.77</v>
@@ -2633,21 +2660,21 @@
         <v>2.64</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="8">
-        <v>67.43</v>
+        <v>67.430000000000007</v>
       </c>
       <c r="C10" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10" s="8">
         <v>3.56</v>
       </c>
       <c r="E10" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="8">
         <v>19.59</v>
@@ -2656,13 +2683,13 @@
         <v>4.33</v>
       </c>
       <c r="H10" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I10" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J10" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K10" s="8">
         <v>15.01</v>
@@ -2671,7 +2698,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>48</v>
       </c>
@@ -2685,7 +2712,7 @@
         <v>13.67</v>
       </c>
       <c r="E11" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11" s="10">
         <v>9.59</v>
@@ -2694,10 +2721,10 @@
         <v>16.55</v>
       </c>
       <c r="H11" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I11" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J11" s="10">
         <v>0.24</v>
@@ -2706,10 +2733,10 @@
         <v>14.63</v>
       </c>
       <c r="L11" s="10">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>49</v>
       </c>
@@ -2717,28 +2744,28 @@
         <v>56.93</v>
       </c>
       <c r="C12" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D12" s="8">
         <v>0.37</v>
       </c>
       <c r="E12" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G12" s="8">
         <v>1.87</v>
       </c>
       <c r="H12" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I12" s="8">
         <v>0.37</v>
       </c>
       <c r="J12" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K12" s="8">
         <v>40.82</v>
@@ -2747,7 +2774,7 @@
         <v>2.62</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>50</v>
       </c>
@@ -2761,7 +2788,7 @@
         <v>1.28</v>
       </c>
       <c r="E13" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13" s="10">
         <v>6.92</v>
@@ -2770,7 +2797,7 @@
         <v>1.53</v>
       </c>
       <c r="H13" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I13" s="10">
         <v>10.09</v>
@@ -2785,7 +2812,7 @@
         <v>21.62</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>51</v>
       </c>
@@ -2796,7 +2823,7 @@
         <v>3.25</v>
       </c>
       <c r="D14" s="8">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E14" s="8">
         <v>0.3</v>
@@ -2808,7 +2835,7 @@
         <v>1.49</v>
       </c>
       <c r="H14" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I14" s="8">
         <v>1.33</v>
@@ -2823,7 +2850,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>52</v>
       </c>
@@ -2846,7 +2873,7 @@
         <v>2.74</v>
       </c>
       <c r="H15" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I15" s="10">
         <v>11.87</v>
@@ -2861,7 +2888,7 @@
         <v>13.47</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>53</v>
       </c>
@@ -2890,7 +2917,7 @@
         <v>28.83</v>
       </c>
       <c r="J16" s="8">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K16" s="8">
         <v>13.84</v>
@@ -2899,7 +2926,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>54</v>
       </c>
@@ -2913,13 +2940,13 @@
         <v>0.52</v>
       </c>
       <c r="E17" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17" s="10">
         <v>6.89</v>
       </c>
       <c r="G17" s="10">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="H17" s="10">
         <v>0.06</v>
@@ -2931,27 +2958,27 @@
         <v>2.64</v>
       </c>
       <c r="K17" s="10">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="L17" s="10">
         <v>6.19</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>55</v>
       </c>
       <c r="B18" s="8">
-        <v>67.32</v>
+        <v>67.319999999999993</v>
       </c>
       <c r="C18" s="8">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="D18" s="8">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="E18" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18" s="8">
         <v>6.42</v>
@@ -2960,7 +2987,7 @@
         <v>4.75</v>
       </c>
       <c r="H18" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I18" s="8">
         <v>11.03</v>
@@ -2975,12 +3002,12 @@
         <v>14.66</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="10">
-        <v>64.93</v>
+        <v>64.930000000000007</v>
       </c>
       <c r="C19" s="10">
         <v>7.64</v>
@@ -2989,7 +3016,7 @@
         <v>1.65</v>
       </c>
       <c r="E19" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19" s="10">
         <v>5.64</v>
@@ -2998,13 +3025,13 @@
         <v>3.82</v>
       </c>
       <c r="H19" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I19" s="10">
         <v>8.68</v>
       </c>
       <c r="J19" s="10">
-        <v>4.69</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="K19" s="10">
         <v>16.23</v>
@@ -3013,7 +3040,7 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>57</v>
       </c>
@@ -3036,7 +3063,7 @@
         <v>6.5</v>
       </c>
       <c r="H20" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I20" s="8">
         <v>7.34</v>
@@ -3045,13 +3072,13 @@
         <v>4.5</v>
       </c>
       <c r="K20" s="8">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="L20" s="8">
-        <v>18.19</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>18.190000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>58</v>
       </c>
@@ -3065,7 +3092,7 @@
         <v>6.32</v>
       </c>
       <c r="E21" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F21" s="10">
         <v>2.48</v>
@@ -3074,10 +3101,10 @@
         <v>2.25</v>
       </c>
       <c r="H21" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I21" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J21" s="10">
         <v>1.03</v>
@@ -3089,7 +3116,7 @@
         <v>3.09</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>59</v>
       </c>
@@ -3100,10 +3127,10 @@
         <v>2.35</v>
       </c>
       <c r="D22" s="8">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="E22" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F22" s="8">
         <v>1.02</v>
@@ -3112,13 +3139,13 @@
         <v>0.76</v>
       </c>
       <c r="H22" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I22" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J22" s="8">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="K22" s="8">
         <v>46.64</v>
@@ -3127,7 +3154,7 @@
         <v>1.52</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>60</v>
       </c>
@@ -3141,7 +3168,7 @@
         <v>2.99</v>
       </c>
       <c r="E23" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F23" s="10">
         <v>3.49</v>
@@ -3150,10 +3177,10 @@
         <v>1.49</v>
       </c>
       <c r="H23" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I23" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J23" s="10">
         <v>1.54</v>
@@ -3165,7 +3192,7 @@
         <v>3.69</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>61</v>
       </c>
@@ -3179,7 +3206,7 @@
         <v>5.01</v>
       </c>
       <c r="E24" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F24" s="8">
         <v>2.5</v>
@@ -3188,10 +3215,10 @@
         <v>0.87</v>
       </c>
       <c r="H24" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I24" s="8">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J24" s="8">
         <v>0.48</v>
@@ -3203,7 +3230,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>62</v>
       </c>
@@ -3217,7 +3244,7 @@
         <v>2.7</v>
       </c>
       <c r="E25" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F25" s="10">
         <v>0.62</v>
@@ -3226,22 +3253,22 @@
         <v>0.62</v>
       </c>
       <c r="H25" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I25" s="10">
         <v>3.73</v>
       </c>
       <c r="J25" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K25" s="10">
         <v>41.49</v>
       </c>
       <c r="L25" s="10">
-        <v>8.71</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>8.7100000000000009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>63</v>
       </c>
@@ -3255,7 +3282,7 @@
         <v>1.36</v>
       </c>
       <c r="E26" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F26" s="8">
         <v>5.82</v>
@@ -3264,13 +3291,13 @@
         <v>5.16</v>
       </c>
       <c r="H26" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I26" s="8">
         <v>18.97</v>
       </c>
       <c r="J26" s="8">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="K26" s="8">
         <v>15.65</v>
@@ -3279,7 +3306,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>64</v>
       </c>
@@ -3293,7 +3320,7 @@
         <v>1.44</v>
       </c>
       <c r="E27" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F27" s="10">
         <v>4.21</v>
@@ -3302,7 +3329,7 @@
         <v>5.79</v>
       </c>
       <c r="H27" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I27" s="10">
         <v>27.52</v>
@@ -3317,7 +3344,7 @@
         <v>6.58</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>65</v>
       </c>
@@ -3331,7 +3358,7 @@
         <v>0.72</v>
       </c>
       <c r="E28" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F28" s="8">
         <v>9.6</v>
@@ -3340,7 +3367,7 @@
         <v>1.28</v>
       </c>
       <c r="H28" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I28" s="8">
         <v>8.92</v>
@@ -3355,12 +3382,12 @@
         <v>8.23</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B29" s="10">
-        <v>80.21</v>
+        <v>80.209999999999994</v>
       </c>
       <c r="C29" s="10">
         <v>0.69</v>
@@ -3369,16 +3396,16 @@
         <v>0.52</v>
       </c>
       <c r="E29" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F29" s="10">
         <v>4.5</v>
       </c>
       <c r="G29" s="10">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="H29" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I29" s="10">
         <v>1.86</v>
@@ -3393,7 +3420,7 @@
         <v>1.99</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>67</v>
       </c>
@@ -3407,7 +3434,7 @@
         <v>1.23</v>
       </c>
       <c r="E30" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F30" s="8">
         <v>4.63</v>
@@ -3416,7 +3443,7 @@
         <v>5.04</v>
       </c>
       <c r="H30" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I30" s="8">
         <v>12.94</v>
@@ -3431,12 +3458,12 @@
         <v>8.86</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B31" s="10">
-        <v>16.15</v>
+        <v>16.149999999999999</v>
       </c>
       <c r="C31" s="10">
         <v>3.38</v>
@@ -3445,16 +3472,16 @@
         <v>1.23</v>
       </c>
       <c r="E31" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F31" s="10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G31" s="10">
         <v>5.38</v>
       </c>
       <c r="H31" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I31" s="10">
         <v>76.62</v>
@@ -3469,7 +3496,7 @@
         <v>22.15</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>69</v>
       </c>
@@ -3483,7 +3510,7 @@
         <v>2.08</v>
       </c>
       <c r="E32" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F32" s="8">
         <v>4.33</v>
@@ -3492,7 +3519,7 @@
         <v>13.22</v>
       </c>
       <c r="H32" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I32" s="8">
         <v>8.49</v>
@@ -3504,10 +3531,10 @@
         <v>12.26</v>
       </c>
       <c r="L32" s="8">
-        <v>4.65</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>70</v>
       </c>
@@ -3515,7 +3542,7 @@
         <v>35.28</v>
       </c>
       <c r="C33" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="10">
         <v>1.33</v>
@@ -3530,7 +3557,7 @@
         <v>10.34</v>
       </c>
       <c r="H33" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I33" s="10">
         <v>49.12</v>
@@ -3545,7 +3572,7 @@
         <v>6.67</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>71</v>
       </c>
@@ -3559,7 +3586,7 @@
         <v>0.6</v>
       </c>
       <c r="E34" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F34" s="8">
         <v>0.3</v>
@@ -3568,13 +3595,13 @@
         <v>1.51</v>
       </c>
       <c r="H34" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I34" s="8">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="J34" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K34" s="8">
         <v>6.95</v>
@@ -3583,7 +3610,7 @@
         <v>3.62</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>72</v>
       </c>
@@ -3597,7 +3624,7 @@
         <v>0.25</v>
       </c>
       <c r="E35" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F35" s="10">
         <v>0.2</v>
@@ -3606,7 +3633,7 @@
         <v>1.03</v>
       </c>
       <c r="H35" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I35" s="10">
         <v>1.03</v>
@@ -3621,7 +3648,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>73</v>
       </c>
@@ -3635,13 +3662,13 @@
         <v>1.6</v>
       </c>
       <c r="E36" s="8">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F36" s="8">
         <v>6.3</v>
       </c>
       <c r="G36" s="8">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="H36" s="8">
         <v>0.01</v>
@@ -3653,31 +3680,34 @@
         <v>1.3</v>
       </c>
       <c r="K36" s="8">
-        <v>18.33</v>
+        <v>18.329999999999998</v>
       </c>
       <c r="L36" s="8">
         <v>7.95</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.25"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>38</v>
       </c>
@@ -3685,295 +3715,288 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="11">
-        <v>6516.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="s">
+      <c r="B2" s="7">
+        <v>6516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="11">
-        <v>6132.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="s">
+      <c r="B3" s="7">
+        <v>6132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="11">
-        <v>1159.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="s">
+      <c r="B4" s="7">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="11">
-        <v>1876.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="s">
+      <c r="B5" s="7">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="11">
-        <v>1562.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="s">
+      <c r="B6" s="7">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="11">
-        <v>3289.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="s">
+      <c r="B7" s="7">
+        <v>3289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="11">
-        <v>1514.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="s">
+      <c r="B8" s="7">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="11">
-        <v>2654.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="s">
+      <c r="B9" s="7">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B10" s="12">
-        <v>393.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="s">
+      <c r="B10" s="8">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="12">
-        <v>417.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="11" t="s">
+      <c r="B11" s="8">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B12" s="12">
-        <v>267.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="s">
+      <c r="B12" s="8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="11">
-        <v>5957.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="s">
+      <c r="B13" s="7">
+        <v>5957</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="11">
-        <v>8562.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="s">
+      <c r="B14" s="7">
+        <v>8562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="12">
-        <v>438.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="11" t="s">
+      <c r="B15" s="8">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="11">
-        <v>8496.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="11" t="s">
+      <c r="B16" s="7">
+        <v>8496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="11">
-        <v>1552.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="11" t="s">
+      <c r="B17" s="7">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="12">
-        <v>716.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="11" t="s">
+      <c r="B18" s="8">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B19" s="11">
-        <v>1152.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="11" t="s">
+      <c r="B19" s="7">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="11">
-        <v>3353.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="11" t="s">
+      <c r="B20" s="7">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="11">
-        <v>2137.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="s">
+      <c r="B21" s="7">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="11">
-        <v>1576.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="11" t="s">
+      <c r="B22" s="7">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="11">
-        <v>2007.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="11" t="s">
+      <c r="B23" s="7">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="11">
-        <v>1038.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="11" t="s">
+      <c r="B24" s="7">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B25" s="12">
-        <v>482.0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="11" t="s">
+      <c r="B25" s="8">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="11">
-        <v>1840.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="11" t="s">
+      <c r="B26" s="7">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="11">
-        <v>2020.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="11" t="s">
+      <c r="B27" s="7">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="11">
-        <v>3051.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="s">
+      <c r="B28" s="7">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B29" s="11">
-        <v>2309.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="s">
+      <c r="B29" s="7">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="12">
-        <v>734.0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="s">
+      <c r="B30" s="8">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="12">
-        <v>650.0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="11" t="s">
+      <c r="B31" s="8">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="11">
-        <v>1248.0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="11" t="s">
+      <c r="B32" s="7">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B33" s="11">
-        <v>1199.0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="11" t="s">
+      <c r="B33" s="7">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="11">
-        <v>1987.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="11" t="s">
+      <c r="B34" s="7">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="11">
-        <v>5560.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="11" t="s">
+      <c r="B35" s="7">
+        <v>5560</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B36" s="11">
-        <v>83843.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="13" t="s">
-        <v>110</v>
-      </c>
-    </row>
+      <c r="B36" s="7">
+        <v>83843</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="A39"/>
-  </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Tugas/Tugas Akhir/Data PSD.xlsx
+++ b/Tugas/Tugas Akhir/Data PSD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fathan\Documents\Obsidian Vault\2. Kuliah\Smt 5\8. Pengantar Sains Data\Tugas\Tugas Akhir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DEC905-19D7-4AC3-B4B5-991F3D1582AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD895094-E3FC-41F9-B629-DDEE69281AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9990" yWindow="4425" windowWidth="18105" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="18105" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="112">
   <si>
     <t>Peubah</t>
   </si>
@@ -368,6 +368,9 @@
       </rPr>
       <t>https://bps.go.id/indikator/indikator/view_data_pub/0000/api_pub/bEVXU252SU9hTjBxWEU3Z2NpS1ZPQT09/da_02/2</t>
     </r>
+  </si>
+  <si>
+    <t>KODE</t>
   </si>
 </sst>
 </file>
@@ -714,7 +717,7 @@
     <col min="3" max="3" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,7 +731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -756,7 +759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -784,7 +787,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
@@ -812,7 +815,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -840,7 +843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -868,7 +871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -3696,10 +3699,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3707,295 +3710,403 @@
     <col min="1" max="1" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B2" s="7">
         <v>6516</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>76</v>
       </c>
       <c r="B3" s="7">
         <v>6132</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>77</v>
       </c>
       <c r="B4" s="7">
         <v>1159</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="7">
         <v>1876</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="7">
         <v>1562</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="7">
         <v>3289</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>81</v>
       </c>
       <c r="B8" s="7">
         <v>1514</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B9" s="7">
         <v>2654</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>83</v>
       </c>
       <c r="B10" s="8">
         <v>393</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="8">
         <v>417</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>85</v>
       </c>
       <c r="B12" s="8">
         <v>267</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>86</v>
       </c>
       <c r="B13" s="7">
         <v>5957</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B14" s="7">
         <v>8562</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>88</v>
       </c>
       <c r="B15" s="8">
         <v>438</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B16" s="7">
         <v>8496</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>90</v>
       </c>
       <c r="B17" s="7">
         <v>1552</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>91</v>
       </c>
       <c r="B18" s="8">
         <v>716</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B19" s="7">
         <v>1152</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>93</v>
       </c>
       <c r="B20" s="7">
         <v>3353</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>94</v>
       </c>
       <c r="B21" s="7">
         <v>2137</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>95</v>
       </c>
       <c r="B22" s="7">
         <v>1576</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>96</v>
       </c>
       <c r="B23" s="7">
         <v>2007</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B24" s="7">
         <v>1038</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B25" s="8">
         <v>482</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>99</v>
       </c>
       <c r="B26" s="7">
         <v>1840</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B27" s="7">
         <v>2020</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>101</v>
       </c>
       <c r="B28" s="7">
         <v>3051</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>102</v>
       </c>
       <c r="B29" s="7">
         <v>2309</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B30" s="8">
         <v>734</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B31" s="8">
         <v>650</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B32" s="7">
         <v>1248</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B33" s="7">
         <v>1199</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>107</v>
       </c>
       <c r="B34" s="7">
         <v>1987</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>108</v>
       </c>
       <c r="B35" s="7">
         <v>5560</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>109</v>
       </c>
       <c r="B36" s="7">
         <v>83843</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2"/>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tugas/Tugas Akhir/Data PSD.xlsx
+++ b/Tugas/Tugas Akhir/Data PSD.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fathan\Documents\Obsidian Vault\2. Kuliah\Smt 5\8. Pengantar Sains Data\Tugas\Tugas Akhir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF308C94-16C3-4BB6-A844-6153EAC6D12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2136C6-3CF8-4F78-8ABD-262F156F0B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1425" yWindow="1425" windowWidth="18105" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
     <sheet name="Bencana Alam" sheetId="2" r:id="rId2"/>
-    <sheet name="Persentase" sheetId="3" r:id="rId3"/>
-    <sheet name="Jumlah Desa" sheetId="4" r:id="rId4"/>
-    <sheet name="Chart" sheetId="5" r:id="rId5"/>
-    <sheet name="Chart (2)" sheetId="6" r:id="rId6"/>
+    <sheet name="Rasio" sheetId="3" r:id="rId3"/>
+    <sheet name="Cluster" sheetId="7" r:id="rId4"/>
+    <sheet name="Jumlah Desa" sheetId="4" r:id="rId5"/>
+    <sheet name="Chart" sheetId="5" r:id="rId6"/>
+    <sheet name="Chart (2)" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="122">
   <si>
     <t>Peubah</t>
   </si>
@@ -405,6 +406,18 @@
   <si>
     <t>6 = 28</t>
   </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>GMM</t>
+  </si>
+  <si>
+    <t>K-Means</t>
+  </si>
+  <si>
+    <t>Fuzzy</t>
+  </si>
 </sst>
 </file>
 
@@ -467,7 +480,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -486,8 +499,50 @@
         <bgColor rgb="FFD4D4D4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002142"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4C7C3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4D4D4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4A7D6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7E1CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE8B2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -495,11 +550,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -529,6 +599,45 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7416,7 +7525,9 @@
   </sheetPr>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -8808,6 +8919,1816 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB58DF56-8664-48EE-9F67-C39F7CF71564}">
+  <dimension ref="A1:P36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16">
+        <v>1</v>
+      </c>
+      <c r="E2" s="16">
+        <v>1</v>
+      </c>
+      <c r="F2" s="17">
+        <v>67.62</v>
+      </c>
+      <c r="G2" s="17">
+        <v>2.66</v>
+      </c>
+      <c r="H2" s="17">
+        <v>0.66</v>
+      </c>
+      <c r="I2" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="J2" s="17">
+        <v>1.66</v>
+      </c>
+      <c r="K2" s="17">
+        <v>1.63</v>
+      </c>
+      <c r="L2" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="M2" s="17">
+        <v>7.57</v>
+      </c>
+      <c r="N2" s="17">
+        <v>1.24</v>
+      </c>
+      <c r="O2" s="17">
+        <v>22.02</v>
+      </c>
+      <c r="P2" s="17">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="20">
+        <v>5</v>
+      </c>
+      <c r="D3" s="21">
+        <v>3</v>
+      </c>
+      <c r="E3" s="16">
+        <v>1</v>
+      </c>
+      <c r="F3" s="22">
+        <v>62.41</v>
+      </c>
+      <c r="G3" s="22">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0.96</v>
+      </c>
+      <c r="I3" s="22">
+        <v>1.34</v>
+      </c>
+      <c r="J3" s="22">
+        <v>7.88</v>
+      </c>
+      <c r="K3" s="22">
+        <v>1.27</v>
+      </c>
+      <c r="L3" s="22">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M3" s="22">
+        <v>15.72</v>
+      </c>
+      <c r="N3" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="O3" s="22">
+        <v>11.94</v>
+      </c>
+      <c r="P3" s="22">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="23">
+        <v>2</v>
+      </c>
+      <c r="E4" s="21">
+        <v>3</v>
+      </c>
+      <c r="F4" s="17">
+        <v>44.26</v>
+      </c>
+      <c r="G4" s="17">
+        <v>3.71</v>
+      </c>
+      <c r="H4" s="17">
+        <v>1.55</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <v>21.4</v>
+      </c>
+      <c r="K4" s="17">
+        <v>4.92</v>
+      </c>
+      <c r="L4" s="17">
+        <v>0</v>
+      </c>
+      <c r="M4" s="17">
+        <v>31.41</v>
+      </c>
+      <c r="N4" s="17">
+        <v>5.61</v>
+      </c>
+      <c r="O4" s="17">
+        <v>29.51</v>
+      </c>
+      <c r="P4" s="17">
+        <v>19.149999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="23">
+        <v>2</v>
+      </c>
+      <c r="F5" s="22">
+        <v>65.25</v>
+      </c>
+      <c r="G5" s="22">
+        <v>2.72</v>
+      </c>
+      <c r="H5" s="22">
+        <v>10.34</v>
+      </c>
+      <c r="I5" s="22">
+        <v>0</v>
+      </c>
+      <c r="J5" s="22">
+        <v>2.83</v>
+      </c>
+      <c r="K5" s="22">
+        <v>0.8</v>
+      </c>
+      <c r="L5" s="22">
+        <v>0</v>
+      </c>
+      <c r="M5" s="22">
+        <v>0</v>
+      </c>
+      <c r="N5" s="22">
+        <v>0.05</v>
+      </c>
+      <c r="O5" s="22">
+        <v>24.25</v>
+      </c>
+      <c r="P5" s="22">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="23">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16">
+        <v>1</v>
+      </c>
+      <c r="E6" s="23">
+        <v>2</v>
+      </c>
+      <c r="F6" s="17">
+        <v>64.08</v>
+      </c>
+      <c r="G6" s="17">
+        <v>1.02</v>
+      </c>
+      <c r="H6" s="17">
+        <v>1.02</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0</v>
+      </c>
+      <c r="J6" s="17">
+        <v>2.82</v>
+      </c>
+      <c r="K6" s="17">
+        <v>0.13</v>
+      </c>
+      <c r="L6" s="17">
+        <v>0</v>
+      </c>
+      <c r="M6" s="17">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N6" s="17">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="O6" s="17">
+        <v>30.47</v>
+      </c>
+      <c r="P6" s="17">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
+        <v>6</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="21">
+        <v>3</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1</v>
+      </c>
+      <c r="F7" s="22">
+        <v>80.39</v>
+      </c>
+      <c r="G7" s="22">
+        <v>2.98</v>
+      </c>
+      <c r="H7" s="22">
+        <v>1.95</v>
+      </c>
+      <c r="I7" s="22">
+        <v>0</v>
+      </c>
+      <c r="J7" s="22">
+        <v>2.74</v>
+      </c>
+      <c r="K7" s="22">
+        <v>0.09</v>
+      </c>
+      <c r="L7" s="22">
+        <v>0</v>
+      </c>
+      <c r="M7" s="22">
+        <v>1.49</v>
+      </c>
+      <c r="N7" s="22">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="O7" s="22">
+        <v>11.55</v>
+      </c>
+      <c r="P7" s="22">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="21">
+        <v>3</v>
+      </c>
+      <c r="D8" s="16">
+        <v>1</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1</v>
+      </c>
+      <c r="F8" s="17">
+        <v>78.930000000000007</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1.25</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0.26</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="K8" s="17">
+        <v>0.92</v>
+      </c>
+      <c r="L8" s="17">
+        <v>0</v>
+      </c>
+      <c r="M8" s="17">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="N8" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="O8" s="17">
+        <v>11.29</v>
+      </c>
+      <c r="P8" s="17">
+        <v>5.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>8</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="21">
+        <v>3</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1</v>
+      </c>
+      <c r="F9" s="22">
+        <v>78.86</v>
+      </c>
+      <c r="G9" s="22">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H9" s="22">
+        <v>0.41</v>
+      </c>
+      <c r="I9" s="22">
+        <v>0</v>
+      </c>
+      <c r="J9" s="22">
+        <v>5.95</v>
+      </c>
+      <c r="K9" s="22">
+        <v>1.32</v>
+      </c>
+      <c r="L9" s="22">
+        <v>0</v>
+      </c>
+      <c r="M9" s="22">
+        <v>1.77</v>
+      </c>
+      <c r="N9" s="22">
+        <v>0.87</v>
+      </c>
+      <c r="O9" s="22">
+        <v>12.36</v>
+      </c>
+      <c r="P9" s="22">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>9</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="16">
+        <v>1</v>
+      </c>
+      <c r="D10" s="16">
+        <v>1</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="F10" s="17">
+        <v>67.430000000000007</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17">
+        <v>3.56</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0</v>
+      </c>
+      <c r="J10" s="17">
+        <v>19.59</v>
+      </c>
+      <c r="K10" s="17">
+        <v>4.33</v>
+      </c>
+      <c r="L10" s="17">
+        <v>0</v>
+      </c>
+      <c r="M10" s="17">
+        <v>0</v>
+      </c>
+      <c r="N10" s="17">
+        <v>0</v>
+      </c>
+      <c r="O10" s="17">
+        <v>15.01</v>
+      </c>
+      <c r="P10" s="17">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <v>10</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="16">
+        <v>1</v>
+      </c>
+      <c r="D11" s="23">
+        <v>2</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1</v>
+      </c>
+      <c r="F11" s="22">
+        <v>57.79</v>
+      </c>
+      <c r="G11" s="22">
+        <v>6.47</v>
+      </c>
+      <c r="H11" s="22">
+        <v>13.67</v>
+      </c>
+      <c r="I11" s="22">
+        <v>0</v>
+      </c>
+      <c r="J11" s="22">
+        <v>9.59</v>
+      </c>
+      <c r="K11" s="22">
+        <v>16.55</v>
+      </c>
+      <c r="L11" s="22">
+        <v>0</v>
+      </c>
+      <c r="M11" s="22">
+        <v>0</v>
+      </c>
+      <c r="N11" s="22">
+        <v>0.24</v>
+      </c>
+      <c r="O11" s="22">
+        <v>14.63</v>
+      </c>
+      <c r="P11" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>11</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="23">
+        <v>2</v>
+      </c>
+      <c r="D12" s="16">
+        <v>1</v>
+      </c>
+      <c r="E12" s="23">
+        <v>2</v>
+      </c>
+      <c r="F12" s="17">
+        <v>56.93</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0</v>
+      </c>
+      <c r="J12" s="17">
+        <v>0</v>
+      </c>
+      <c r="K12" s="17">
+        <v>1.87</v>
+      </c>
+      <c r="L12" s="17">
+        <v>0</v>
+      </c>
+      <c r="M12" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="N12" s="17">
+        <v>0</v>
+      </c>
+      <c r="O12" s="17">
+        <v>40.82</v>
+      </c>
+      <c r="P12" s="17">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
+      <c r="D13" s="23">
+        <v>2</v>
+      </c>
+      <c r="E13" s="23">
+        <v>2</v>
+      </c>
+      <c r="F13" s="22">
+        <v>51.72</v>
+      </c>
+      <c r="G13" s="22">
+        <v>7.42</v>
+      </c>
+      <c r="H13" s="22">
+        <v>1.28</v>
+      </c>
+      <c r="I13" s="22">
+        <v>0</v>
+      </c>
+      <c r="J13" s="22">
+        <v>6.92</v>
+      </c>
+      <c r="K13" s="22">
+        <v>1.53</v>
+      </c>
+      <c r="L13" s="22">
+        <v>0</v>
+      </c>
+      <c r="M13" s="22">
+        <v>10.09</v>
+      </c>
+      <c r="N13" s="22">
+        <v>1.68</v>
+      </c>
+      <c r="O13" s="22">
+        <v>20.03</v>
+      </c>
+      <c r="P13" s="22">
+        <v>21.62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="24">
+        <v>4</v>
+      </c>
+      <c r="D14" s="16">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="17">
+        <v>65.84</v>
+      </c>
+      <c r="G14" s="17">
+        <v>3.25</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I14" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="J14" s="17">
+        <v>7.23</v>
+      </c>
+      <c r="K14" s="17">
+        <v>1.49</v>
+      </c>
+      <c r="L14" s="17">
+        <v>0</v>
+      </c>
+      <c r="M14" s="17">
+        <v>1.33</v>
+      </c>
+      <c r="N14" s="17">
+        <v>0.81</v>
+      </c>
+      <c r="O14" s="17">
+        <v>14.59</v>
+      </c>
+      <c r="P14" s="17">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="16">
+        <v>1</v>
+      </c>
+      <c r="D15" s="23">
+        <v>2</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1</v>
+      </c>
+      <c r="F15" s="22">
+        <v>53.2</v>
+      </c>
+      <c r="G15" s="22">
+        <v>7.08</v>
+      </c>
+      <c r="H15" s="22">
+        <v>0.91</v>
+      </c>
+      <c r="I15" s="22">
+        <v>0.68</v>
+      </c>
+      <c r="J15" s="22">
+        <v>19.18</v>
+      </c>
+      <c r="K15" s="22">
+        <v>2.74</v>
+      </c>
+      <c r="L15" s="22">
+        <v>0</v>
+      </c>
+      <c r="M15" s="22">
+        <v>11.87</v>
+      </c>
+      <c r="N15" s="22">
+        <v>0.23</v>
+      </c>
+      <c r="O15" s="22">
+        <v>11.42</v>
+      </c>
+      <c r="P15" s="22">
+        <v>13.47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="20">
+        <v>5</v>
+      </c>
+      <c r="D16" s="21">
+        <v>3</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="17">
+        <v>54.79</v>
+      </c>
+      <c r="G16" s="17">
+        <v>1.84</v>
+      </c>
+      <c r="H16" s="17">
+        <v>0.59</v>
+      </c>
+      <c r="I16" s="17">
+        <v>0.87</v>
+      </c>
+      <c r="J16" s="17">
+        <v>5.72</v>
+      </c>
+      <c r="K16" s="17">
+        <v>1.02</v>
+      </c>
+      <c r="L16" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="M16" s="17">
+        <v>28.83</v>
+      </c>
+      <c r="N16" s="17">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="O16" s="17">
+        <v>13.84</v>
+      </c>
+      <c r="P16" s="17">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="16">
+        <v>1</v>
+      </c>
+      <c r="D17" s="21">
+        <v>3</v>
+      </c>
+      <c r="E17" s="23">
+        <v>2</v>
+      </c>
+      <c r="F17" s="22">
+        <v>58.89</v>
+      </c>
+      <c r="G17" s="22">
+        <v>4.96</v>
+      </c>
+      <c r="H17" s="22">
+        <v>0.52</v>
+      </c>
+      <c r="I17" s="22">
+        <v>0</v>
+      </c>
+      <c r="J17" s="22">
+        <v>6.89</v>
+      </c>
+      <c r="K17" s="22">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="L17" s="22">
+        <v>0.06</v>
+      </c>
+      <c r="M17" s="22">
+        <v>10.18</v>
+      </c>
+      <c r="N17" s="22">
+        <v>2.64</v>
+      </c>
+      <c r="O17" s="22">
+        <v>27</v>
+      </c>
+      <c r="P17" s="22">
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>17</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="24">
+        <v>4</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1</v>
+      </c>
+      <c r="E18" s="16">
+        <v>1</v>
+      </c>
+      <c r="F18" s="17">
+        <v>67.319999999999993</v>
+      </c>
+      <c r="G18" s="17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H18" s="17">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I18" s="17">
+        <v>0</v>
+      </c>
+      <c r="J18" s="17">
+        <v>6.42</v>
+      </c>
+      <c r="K18" s="17">
+        <v>4.75</v>
+      </c>
+      <c r="L18" s="17">
+        <v>0</v>
+      </c>
+      <c r="M18" s="17">
+        <v>11.03</v>
+      </c>
+      <c r="N18" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="O18" s="17">
+        <v>5.45</v>
+      </c>
+      <c r="P18" s="17">
+        <v>14.66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="18">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="16">
+        <v>1</v>
+      </c>
+      <c r="D19" s="23">
+        <v>2</v>
+      </c>
+      <c r="E19" s="16">
+        <v>1</v>
+      </c>
+      <c r="F19" s="22">
+        <v>64.930000000000007</v>
+      </c>
+      <c r="G19" s="22">
+        <v>7.64</v>
+      </c>
+      <c r="H19" s="22">
+        <v>1.65</v>
+      </c>
+      <c r="I19" s="22">
+        <v>0</v>
+      </c>
+      <c r="J19" s="22">
+        <v>5.64</v>
+      </c>
+      <c r="K19" s="22">
+        <v>3.82</v>
+      </c>
+      <c r="L19" s="22">
+        <v>0</v>
+      </c>
+      <c r="M19" s="22">
+        <v>8.68</v>
+      </c>
+      <c r="N19" s="22">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="O19" s="22">
+        <v>16.23</v>
+      </c>
+      <c r="P19" s="22">
+        <v>3.82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>19</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="16">
+        <v>1</v>
+      </c>
+      <c r="D20" s="23">
+        <v>2</v>
+      </c>
+      <c r="E20" s="23">
+        <v>2</v>
+      </c>
+      <c r="F20" s="17">
+        <v>44.35</v>
+      </c>
+      <c r="G20" s="17">
+        <v>13.54</v>
+      </c>
+      <c r="H20" s="17">
+        <v>4.29</v>
+      </c>
+      <c r="I20" s="17">
+        <v>1.61</v>
+      </c>
+      <c r="J20" s="17">
+        <v>36.36</v>
+      </c>
+      <c r="K20" s="17">
+        <v>6.5</v>
+      </c>
+      <c r="L20" s="17">
+        <v>0</v>
+      </c>
+      <c r="M20" s="17">
+        <v>7.34</v>
+      </c>
+      <c r="N20" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="O20" s="17">
+        <v>17</v>
+      </c>
+      <c r="P20" s="17">
+        <v>18.190000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="23">
+        <v>2</v>
+      </c>
+      <c r="D21" s="16">
+        <v>1</v>
+      </c>
+      <c r="E21" s="23">
+        <v>2</v>
+      </c>
+      <c r="F21" s="22">
+        <v>54.19</v>
+      </c>
+      <c r="G21" s="22">
+        <v>3.51</v>
+      </c>
+      <c r="H21" s="22">
+        <v>6.32</v>
+      </c>
+      <c r="I21" s="22">
+        <v>0</v>
+      </c>
+      <c r="J21" s="22">
+        <v>2.48</v>
+      </c>
+      <c r="K21" s="22">
+        <v>2.25</v>
+      </c>
+      <c r="L21" s="22">
+        <v>0</v>
+      </c>
+      <c r="M21" s="22">
+        <v>0</v>
+      </c>
+      <c r="N21" s="22">
+        <v>1.03</v>
+      </c>
+      <c r="O21" s="22">
+        <v>40.43</v>
+      </c>
+      <c r="P21" s="22">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <v>21</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="23">
+        <v>2</v>
+      </c>
+      <c r="D22" s="16">
+        <v>1</v>
+      </c>
+      <c r="E22" s="23">
+        <v>2</v>
+      </c>
+      <c r="F22" s="17">
+        <v>50.06</v>
+      </c>
+      <c r="G22" s="17">
+        <v>2.35</v>
+      </c>
+      <c r="H22" s="17">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="I22" s="17">
+        <v>0</v>
+      </c>
+      <c r="J22" s="17">
+        <v>1.02</v>
+      </c>
+      <c r="K22" s="17">
+        <v>0.76</v>
+      </c>
+      <c r="L22" s="17">
+        <v>0</v>
+      </c>
+      <c r="M22" s="17">
+        <v>0</v>
+      </c>
+      <c r="N22" s="17">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="O22" s="17">
+        <v>46.64</v>
+      </c>
+      <c r="P22" s="17">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18">
+        <v>22</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="23">
+        <v>2</v>
+      </c>
+      <c r="D23" s="16">
+        <v>1</v>
+      </c>
+      <c r="E23" s="23">
+        <v>2</v>
+      </c>
+      <c r="F23" s="22">
+        <v>48.48</v>
+      </c>
+      <c r="G23" s="22">
+        <v>1.74</v>
+      </c>
+      <c r="H23" s="22">
+        <v>2.99</v>
+      </c>
+      <c r="I23" s="22">
+        <v>0</v>
+      </c>
+      <c r="J23" s="22">
+        <v>3.49</v>
+      </c>
+      <c r="K23" s="22">
+        <v>1.49</v>
+      </c>
+      <c r="L23" s="22">
+        <v>0</v>
+      </c>
+      <c r="M23" s="22">
+        <v>0</v>
+      </c>
+      <c r="N23" s="22">
+        <v>1.54</v>
+      </c>
+      <c r="O23" s="22">
+        <v>46.29</v>
+      </c>
+      <c r="P23" s="22">
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14">
+        <v>23</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="23">
+        <v>2</v>
+      </c>
+      <c r="D24" s="16">
+        <v>1</v>
+      </c>
+      <c r="E24" s="23">
+        <v>2</v>
+      </c>
+      <c r="F24" s="17">
+        <v>60.5</v>
+      </c>
+      <c r="G24" s="17">
+        <v>3.08</v>
+      </c>
+      <c r="H24" s="17">
+        <v>5.01</v>
+      </c>
+      <c r="I24" s="17">
+        <v>0</v>
+      </c>
+      <c r="J24" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="K24" s="17">
+        <v>0.87</v>
+      </c>
+      <c r="L24" s="17">
+        <v>0</v>
+      </c>
+      <c r="M24" s="17">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N24" s="17">
+        <v>0.48</v>
+      </c>
+      <c r="O24" s="17">
+        <v>33.04</v>
+      </c>
+      <c r="P24" s="17">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18">
+        <v>24</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="23">
+        <v>2</v>
+      </c>
+      <c r="D25" s="16">
+        <v>1</v>
+      </c>
+      <c r="E25" s="23">
+        <v>2</v>
+      </c>
+      <c r="F25" s="22">
+        <v>51.45</v>
+      </c>
+      <c r="G25" s="22">
+        <v>1.24</v>
+      </c>
+      <c r="H25" s="22">
+        <v>2.7</v>
+      </c>
+      <c r="I25" s="22">
+        <v>0</v>
+      </c>
+      <c r="J25" s="22">
+        <v>0.62</v>
+      </c>
+      <c r="K25" s="22">
+        <v>0.62</v>
+      </c>
+      <c r="L25" s="22">
+        <v>0</v>
+      </c>
+      <c r="M25" s="22">
+        <v>3.73</v>
+      </c>
+      <c r="N25" s="22">
+        <v>0</v>
+      </c>
+      <c r="O25" s="22">
+        <v>41.49</v>
+      </c>
+      <c r="P25" s="22">
+        <v>8.7100000000000009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14">
+        <v>25</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="24">
+        <v>4</v>
+      </c>
+      <c r="D26" s="16">
+        <v>1</v>
+      </c>
+      <c r="E26" s="16">
+        <v>1</v>
+      </c>
+      <c r="F26" s="17">
+        <v>58.42</v>
+      </c>
+      <c r="G26" s="17">
+        <v>1.3</v>
+      </c>
+      <c r="H26" s="17">
+        <v>1.36</v>
+      </c>
+      <c r="I26" s="17">
+        <v>0</v>
+      </c>
+      <c r="J26" s="17">
+        <v>5.82</v>
+      </c>
+      <c r="K26" s="17">
+        <v>5.16</v>
+      </c>
+      <c r="L26" s="17">
+        <v>0</v>
+      </c>
+      <c r="M26" s="17">
+        <v>18.97</v>
+      </c>
+      <c r="N26" s="17">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="O26" s="17">
+        <v>15.65</v>
+      </c>
+      <c r="P26" s="17">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18">
+        <v>26</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="16">
+        <v>1</v>
+      </c>
+      <c r="D27" s="23">
+        <v>2</v>
+      </c>
+      <c r="E27" s="23">
+        <v>2</v>
+      </c>
+      <c r="F27" s="22">
+        <v>48.71</v>
+      </c>
+      <c r="G27" s="22">
+        <v>2.08</v>
+      </c>
+      <c r="H27" s="22">
+        <v>1.44</v>
+      </c>
+      <c r="I27" s="22">
+        <v>0</v>
+      </c>
+      <c r="J27" s="22">
+        <v>4.21</v>
+      </c>
+      <c r="K27" s="22">
+        <v>5.79</v>
+      </c>
+      <c r="L27" s="22">
+        <v>0</v>
+      </c>
+      <c r="M27" s="22">
+        <v>27.52</v>
+      </c>
+      <c r="N27" s="22">
+        <v>2.82</v>
+      </c>
+      <c r="O27" s="22">
+        <v>28.07</v>
+      </c>
+      <c r="P27" s="22">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14">
+        <v>27</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="24">
+        <v>4</v>
+      </c>
+      <c r="D28" s="16">
+        <v>1</v>
+      </c>
+      <c r="E28" s="16">
+        <v>1</v>
+      </c>
+      <c r="F28" s="17">
+        <v>61.06</v>
+      </c>
+      <c r="G28" s="17">
+        <v>1.97</v>
+      </c>
+      <c r="H28" s="17">
+        <v>0.72</v>
+      </c>
+      <c r="I28" s="17">
+        <v>0</v>
+      </c>
+      <c r="J28" s="17">
+        <v>9.6</v>
+      </c>
+      <c r="K28" s="17">
+        <v>1.28</v>
+      </c>
+      <c r="L28" s="17">
+        <v>0</v>
+      </c>
+      <c r="M28" s="17">
+        <v>8.92</v>
+      </c>
+      <c r="N28" s="17">
+        <v>1.7</v>
+      </c>
+      <c r="O28" s="17">
+        <v>20.32</v>
+      </c>
+      <c r="P28" s="17">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="18">
+        <v>28</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="21">
+        <v>3</v>
+      </c>
+      <c r="D29" s="16">
+        <v>1</v>
+      </c>
+      <c r="E29" s="16">
+        <v>1</v>
+      </c>
+      <c r="F29" s="22">
+        <v>80.209999999999994</v>
+      </c>
+      <c r="G29" s="22">
+        <v>0.69</v>
+      </c>
+      <c r="H29" s="22">
+        <v>0.52</v>
+      </c>
+      <c r="I29" s="22">
+        <v>0</v>
+      </c>
+      <c r="J29" s="22">
+        <v>4.5</v>
+      </c>
+      <c r="K29" s="22">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="L29" s="22">
+        <v>0</v>
+      </c>
+      <c r="M29" s="22">
+        <v>1.86</v>
+      </c>
+      <c r="N29" s="22">
+        <v>0.43</v>
+      </c>
+      <c r="O29" s="22">
+        <v>10.39</v>
+      </c>
+      <c r="P29" s="22">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14">
+        <v>29</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="16">
+        <v>1</v>
+      </c>
+      <c r="D30" s="23">
+        <v>2</v>
+      </c>
+      <c r="E30" s="23">
+        <v>2</v>
+      </c>
+      <c r="F30" s="17">
+        <v>47.96</v>
+      </c>
+      <c r="G30" s="17">
+        <v>7.77</v>
+      </c>
+      <c r="H30" s="17">
+        <v>1.23</v>
+      </c>
+      <c r="I30" s="17">
+        <v>0</v>
+      </c>
+      <c r="J30" s="17">
+        <v>4.63</v>
+      </c>
+      <c r="K30" s="17">
+        <v>5.04</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+      <c r="M30" s="17">
+        <v>12.94</v>
+      </c>
+      <c r="N30" s="17">
+        <v>3.27</v>
+      </c>
+      <c r="O30" s="17">
+        <v>35.29</v>
+      </c>
+      <c r="P30" s="17">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="18">
+        <v>30</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="16">
+        <v>1</v>
+      </c>
+      <c r="D31" s="23">
+        <v>2</v>
+      </c>
+      <c r="E31" s="21">
+        <v>3</v>
+      </c>
+      <c r="F31" s="22">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="G31" s="22">
+        <v>3.38</v>
+      </c>
+      <c r="H31" s="22">
+        <v>1.23</v>
+      </c>
+      <c r="I31" s="22">
+        <v>0</v>
+      </c>
+      <c r="J31" s="22">
+        <v>4</v>
+      </c>
+      <c r="K31" s="22">
+        <v>5.38</v>
+      </c>
+      <c r="L31" s="22">
+        <v>0</v>
+      </c>
+      <c r="M31" s="22">
+        <v>76.62</v>
+      </c>
+      <c r="N31" s="22">
+        <v>1.08</v>
+      </c>
+      <c r="O31" s="22">
+        <v>19.23</v>
+      </c>
+      <c r="P31" s="22">
+        <v>22.15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14">
+        <v>31</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="16">
+        <v>1</v>
+      </c>
+      <c r="D32" s="16">
+        <v>1</v>
+      </c>
+      <c r="E32" s="16">
+        <v>1</v>
+      </c>
+      <c r="F32" s="17">
+        <v>63.94</v>
+      </c>
+      <c r="G32" s="17">
+        <v>2.08</v>
+      </c>
+      <c r="H32" s="17">
+        <v>2.08</v>
+      </c>
+      <c r="I32" s="17">
+        <v>0</v>
+      </c>
+      <c r="J32" s="17">
+        <v>4.33</v>
+      </c>
+      <c r="K32" s="17">
+        <v>13.22</v>
+      </c>
+      <c r="L32" s="17">
+        <v>0</v>
+      </c>
+      <c r="M32" s="17">
+        <v>8.49</v>
+      </c>
+      <c r="N32" s="17">
+        <v>0.16</v>
+      </c>
+      <c r="O32" s="17">
+        <v>12.26</v>
+      </c>
+      <c r="P32" s="17">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18">
+        <v>32</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="16">
+        <v>1</v>
+      </c>
+      <c r="D33" s="23">
+        <v>2</v>
+      </c>
+      <c r="E33" s="21">
+        <v>3</v>
+      </c>
+      <c r="F33" s="22">
+        <v>35.28</v>
+      </c>
+      <c r="G33" s="22">
+        <v>1</v>
+      </c>
+      <c r="H33" s="22">
+        <v>1.33</v>
+      </c>
+      <c r="I33" s="22">
+        <v>0.08</v>
+      </c>
+      <c r="J33" s="22">
+        <v>3.5</v>
+      </c>
+      <c r="K33" s="22">
+        <v>10.34</v>
+      </c>
+      <c r="L33" s="22">
+        <v>0</v>
+      </c>
+      <c r="M33" s="22">
+        <v>49.12</v>
+      </c>
+      <c r="N33" s="22">
+        <v>1.67</v>
+      </c>
+      <c r="O33" s="22">
+        <v>22.52</v>
+      </c>
+      <c r="P33" s="22">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14">
+        <v>33</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="21">
+        <v>3</v>
+      </c>
+      <c r="D34" s="16">
+        <v>1</v>
+      </c>
+      <c r="E34" s="16">
+        <v>1</v>
+      </c>
+      <c r="F34" s="17">
+        <v>74.58</v>
+      </c>
+      <c r="G34" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="H34" s="17">
+        <v>0.6</v>
+      </c>
+      <c r="I34" s="17">
+        <v>0</v>
+      </c>
+      <c r="J34" s="17">
+        <v>0.3</v>
+      </c>
+      <c r="K34" s="17">
+        <v>1.51</v>
+      </c>
+      <c r="L34" s="17">
+        <v>0</v>
+      </c>
+      <c r="M34" s="17">
+        <v>16</v>
+      </c>
+      <c r="N34" s="17">
+        <v>0</v>
+      </c>
+      <c r="O34" s="17">
+        <v>6.95</v>
+      </c>
+      <c r="P34" s="17">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="18">
+        <v>34</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="21">
+        <v>3</v>
+      </c>
+      <c r="D35" s="16">
+        <v>1</v>
+      </c>
+      <c r="E35" s="16">
+        <v>1</v>
+      </c>
+      <c r="F35" s="22">
+        <v>92.48</v>
+      </c>
+      <c r="G35" s="22">
+        <v>0.16</v>
+      </c>
+      <c r="H35" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="I35" s="22">
+        <v>0</v>
+      </c>
+      <c r="J35" s="22">
+        <v>0.2</v>
+      </c>
+      <c r="K35" s="22">
+        <v>1.03</v>
+      </c>
+      <c r="L35" s="22">
+        <v>0</v>
+      </c>
+      <c r="M35" s="22">
+        <v>1.03</v>
+      </c>
+      <c r="N35" s="22">
+        <v>0.16</v>
+      </c>
+      <c r="O35" s="22">
+        <v>3.67</v>
+      </c>
+      <c r="P35" s="22">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="25"/>
+      <c r="B36" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="17">
+        <v>62.82</v>
+      </c>
+      <c r="G36" s="17">
+        <v>3.07</v>
+      </c>
+      <c r="H36" s="17">
+        <v>1.6</v>
+      </c>
+      <c r="I36" s="17">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J36" s="17">
+        <v>6.3</v>
+      </c>
+      <c r="K36" s="17">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="L36" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="M36" s="17">
+        <v>10.41</v>
+      </c>
+      <c r="N36" s="17">
+        <v>1.3</v>
+      </c>
+      <c r="O36" s="17">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="P36" s="17">
+        <v>7.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -9225,11 +11146,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF255C8-80B8-470C-817D-A6BA86BD72B4}">
   <dimension ref="A1:F361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AP38" sqref="AP38"/>
     </sheetView>
   </sheetViews>
@@ -12218,7 +14139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648AD133-ECE9-4FB1-8F7C-997A6CFEB113}">
   <dimension ref="A1:F361"/>
   <sheetViews>
